--- a/project/excel/kgviz.xlsx
+++ b/project/excel/kgviz.xlsx
@@ -707,7 +707,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -753,30 +753,35 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
+          <t>containmentRelations</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>reasoning</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>excludeSingletons</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>relationProperties</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>prefixProperties</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>conditionalProperties</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>nodeFilter</t>
         </is>
@@ -790,7 +795,7 @@
     <dataValidation sqref="B2:B1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"dashed,dotted,solid,invis,bold,tapered,filled,striped,wedged,diagonals,rounded"</formula1>
     </dataValidation>
-    <dataValidation sqref="H2:H1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="I2:I1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"transitive_reduction,todo"</formula1>
     </dataValidation>
     <dataValidation sqref="A2:A1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
@@ -799,7 +804,7 @@
     <dataValidation sqref="B2:B1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"dashed,dotted,solid,invis,bold,tapered,filled,striped,wedged,diagonals,rounded"</formula1>
     </dataValidation>
-    <dataValidation sqref="H2:H1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="I2:I1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"transitive_reduction,todo"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1336,7 +1341,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1382,30 +1387,35 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
+          <t>containmentRelations</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>reasoning</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>excludeSingletons</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>relationProperties</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>prefixProperties</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>conditionalProperties</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>nodeFilter</t>
         </is>
